--- a/src/main/java/lomt/pearson/fileupload/english/product_toc/igestion_usecase_6/English_TOC_Ingestion_Usecase-6.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/english/product_toc/igestion_usecase_6/English_TOC_Ingestion_Usecase-6.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\english\product_toc\igestion_usecase_6\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" tabRatio="490"/>
   </bookViews>
@@ -188,14 +193,14 @@
     <t>GLSI6666A0</t>
   </si>
   <si>
-    <t>Feldman_Product_AlignCode_J1</t>
+    <t>Feldman_Product_AlignCode_K1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,7 +466,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -496,7 +501,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -673,21 +678,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -705,7 +710,7 @@
     <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +718,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -721,7 +726,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -729,13 +734,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1">
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -743,13 +748,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -757,7 +762,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -765,7 +770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -773,7 +778,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -781,7 +786,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -789,7 +794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -839,7 +844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="8">
@@ -873,7 +878,7 @@
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:16" ht="30">
+    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="8">
@@ -905,7 +910,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="8">
@@ -937,7 +942,7 @@
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="9">
@@ -969,7 +974,7 @@
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="9">
@@ -999,7 +1004,7 @@
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="9">
@@ -1031,7 +1036,7 @@
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9">
@@ -1063,7 +1068,7 @@
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="9">
@@ -1095,7 +1100,7 @@
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="9">
@@ -1127,7 +1132,7 @@
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="9">
@@ -1159,7 +1164,7 @@
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="9">
@@ -1187,7 +1192,7 @@
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="9">
@@ -1219,7 +1224,7 @@
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="9">
@@ -1251,7 +1256,7 @@
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="9">
@@ -1283,7 +1288,7 @@
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="9">

--- a/src/main/java/lomt/pearson/fileupload/english/product_toc/igestion_usecase_6/English_TOC_Ingestion_Usecase-6.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/english/product_toc/igestion_usecase_6/English_TOC_Ingestion_Usecase-6.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\english\product_toc\igestion_usecase_6\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" tabRatio="490"/>
   </bookViews>
@@ -193,14 +188,14 @@
     <t>GLSI6666A0</t>
   </si>
   <si>
-    <t>Feldman_Product_AlignCode_K1</t>
+    <t>Feldman_Product_AlignCode_J1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,7 +461,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -501,7 +496,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -678,21 +673,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -710,7 +705,7 @@
     <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -718,7 +713,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -726,7 +721,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -734,13 +729,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15.75" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -748,13 +743,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -762,7 +757,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,7 +765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -778,7 +773,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -786,7 +781,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -794,7 +789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -844,7 +839,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="8">
@@ -878,7 +873,7 @@
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="30">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="8">
@@ -910,7 +905,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="8">
@@ -942,7 +937,7 @@
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="9">
@@ -974,7 +969,7 @@
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="9">
@@ -1004,7 +999,7 @@
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="9">
@@ -1036,7 +1031,7 @@
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9">
@@ -1068,7 +1063,7 @@
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="9">
@@ -1100,7 +1095,7 @@
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="9">
@@ -1132,7 +1127,7 @@
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="9">
@@ -1164,7 +1159,7 @@
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="9">
@@ -1192,7 +1187,7 @@
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="9">
@@ -1224,7 +1219,7 @@
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="9">
@@ -1256,7 +1251,7 @@
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="9">
@@ -1288,7 +1283,7 @@
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="9">

--- a/src/main/java/lomt/pearson/fileupload/english/product_toc/igestion_usecase_6/English_TOC_Ingestion_Usecase-6.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/english/product_toc/igestion_usecase_6/English_TOC_Ingestion_Usecase-6.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\english\product_toc\igestion_usecase_6\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" tabRatio="490"/>
   </bookViews>
@@ -188,14 +193,14 @@
     <t>GLSI6666A0</t>
   </si>
   <si>
-    <t>Feldman_Product_AlignCode_J1</t>
+    <t>Feldman_Product_AlignCode_ppe1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,21 +678,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -705,7 +710,7 @@
     <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +718,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -721,7 +726,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -729,13 +734,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1">
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -743,13 +748,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -757,7 +762,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -765,7 +770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -773,7 +778,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -781,7 +786,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -789,7 +794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -839,7 +844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="8">
@@ -873,7 +878,7 @@
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:16" ht="30">
+    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="8">
@@ -905,7 +910,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="8">
@@ -937,7 +942,7 @@
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="9">
@@ -969,7 +974,7 @@
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="9">
@@ -999,7 +1004,7 @@
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="9">
@@ -1031,7 +1036,7 @@
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9">
@@ -1063,7 +1068,7 @@
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="9">
@@ -1095,7 +1100,7 @@
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="9">
@@ -1127,7 +1132,7 @@
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="9">
@@ -1159,7 +1164,7 @@
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="9">
@@ -1187,7 +1192,7 @@
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="9">
@@ -1219,7 +1224,7 @@
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="9">
@@ -1251,7 +1256,7 @@
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="9">
@@ -1283,7 +1288,7 @@
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="9">
